--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3332.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3332.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.928462151026783</v>
+        <v>2.487164258956909</v>
       </c>
       <c r="B1">
-        <v>1.715311641702456</v>
+        <v>4.344063758850098</v>
       </c>
       <c r="C1">
-        <v>7.071016515013088</v>
+        <v>3.230034112930298</v>
       </c>
       <c r="D1">
-        <v>3.454624450550025</v>
+        <v>0.8917667865753174</v>
       </c>
       <c r="E1">
-        <v>1.500336008489995</v>
+        <v>0.4708960652351379</v>
       </c>
     </row>
   </sheetData>
